--- a/medicine/Pharmacie/Pierre_Bayen/Pierre_Bayen.xlsx
+++ b/medicine/Pharmacie/Pierre_Bayen/Pierre_Bayen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bayen, né à Châlons-en-Champagne le 7 février 1725 et mort le 15 février 1798 à Paris, est un chimiste et un pharmacien militaire français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Pierre Bayen et de Françoise Legentil, il en est le septième et dernier enfant. Il est élève en pharmacie à Reims puis à Paris et commence une carrière militaire qui durera 42 années. Il suit comme pharmacien en chef l'expédition de Minorque en 1756, puis passe à l'armée d'Allemagne pendant la guerre de Sept Ans et y rend de grands services en créant pour ainsi dire la pharmacie militaire. Durant cette guerre, il rencontre Parmentier jeune pharmacien militaire sous ses ordres et il remarque les nombreuses qualités de celui-ci avec lequel il va créer une longue amitié. Reçu apothicaire en 1766 et membre du Collège de pharmacie, il devient inspecteur général du Service de santé en 1796.
-Il analyse notamment les eaux minérales de la France et découvre certaines propriétés du fulminate de mercure. Il fait plusieurs autres observations importantes dans ses Opuscules chimiques, parus en 1798[1]. Il est connu comme le grand détracteur de la théorie du phlogistique.
-En avril 1774, Pierre Bayen publie sa découverte que le chauffage de l'oxyde de mercure (chaux mercurielle ou mercure précipité per se) produit un dégagement gazeux et une perte de masse[2]. Il recueille ce gaz, et note qu'il est légèrement plus dense que l'air atmosphérique et plus léger que l'air fixe (dioxyde de carbone). La théorie du phlogistique de Stahl en laquelle tous les chimistes croyaient, y compris Lavoisier, prévoyait une augmentation de masse. C'est sur ce qui apparaissait comme une anomalie qu'il consacre son temps en réalisant des expériences avec minutie et précision. Il fait réagir le mercure sur l'acide nitrique fumant puis sur la soude, il obtient l'oxyde de mercure qui, séché, a une masse supérieure au métal. Cela lui suffit pour comprendre que la théorie du phlogistique en vigueur est fausse et relève de l’obscurantisme des alchimistes. L'étude du gaz qui s'était libéré de la chaux mercurielle n'a pas dû lui apparaître importante au regard de ce qu'il venait de mettre en évidence et qui va ouvrir la voie à Lavoisier pour devenir le « père de la chimie moderne ». S'il n'a pas découvert l'oxygène (dioxygène), il a été le premier à l'obtenir. Lavoisier va reproduire l'expérience de Bayen en remplaçant le mercure par l'étain. Le 1er août 1774, le Britannique Joseph Priestley, indépendamment, fait la même expérience dans son laboratoire. Il recueille le même gaz qu'il appellera plus tard air déphlogistiqué. Dans son mémoire Experiments and Observations on Different Kinds of Air, Vol.2. London, 1775, Priestley ne manqua pas de décrire attentivement son expérience :
+Il analyse notamment les eaux minérales de la France et découvre certaines propriétés du fulminate de mercure. Il fait plusieurs autres observations importantes dans ses Opuscules chimiques, parus en 1798. Il est connu comme le grand détracteur de la théorie du phlogistique.
+En avril 1774, Pierre Bayen publie sa découverte que le chauffage de l'oxyde de mercure (chaux mercurielle ou mercure précipité per se) produit un dégagement gazeux et une perte de masse. Il recueille ce gaz, et note qu'il est légèrement plus dense que l'air atmosphérique et plus léger que l'air fixe (dioxyde de carbone). La théorie du phlogistique de Stahl en laquelle tous les chimistes croyaient, y compris Lavoisier, prévoyait une augmentation de masse. C'est sur ce qui apparaissait comme une anomalie qu'il consacre son temps en réalisant des expériences avec minutie et précision. Il fait réagir le mercure sur l'acide nitrique fumant puis sur la soude, il obtient l'oxyde de mercure qui, séché, a une masse supérieure au métal. Cela lui suffit pour comprendre que la théorie du phlogistique en vigueur est fausse et relève de l’obscurantisme des alchimistes. L'étude du gaz qui s'était libéré de la chaux mercurielle n'a pas dû lui apparaître importante au regard de ce qu'il venait de mettre en évidence et qui va ouvrir la voie à Lavoisier pour devenir le « père de la chimie moderne ». S'il n'a pas découvert l'oxygène (dioxygène), il a été le premier à l'obtenir. Lavoisier va reproduire l'expérience de Bayen en remplaçant le mercure par l'étain. Le 1er août 1774, le Britannique Joseph Priestley, indépendamment, fait la même expérience dans son laboratoire. Il recueille le même gaz qu'il appellera plus tard air déphlogistiqué. Dans son mémoire Experiments and Observations on Different Kinds of Air, Vol.2. London, 1775, Priestley ne manqua pas de décrire attentivement son expérience :
 « on the 1st of August 1774, I endeavoured to extract air from mercurius calcinatus per se, (red precipitate of mercury,) and I presently found that by means of the lens, air was expelled from it very readily. Having got about three or four times as much as the bulk of my materials, I admitted water to it, and found that it was not imbibed by it. But what surprised me more than I can well express, was, that a candle burned in this air with a remarkable vigorous flame, very much like that enlarged flame with which a candle burns in nitrous air … I was utterly at a loss how to account for it. »
 que l'on peut traduire :
 « le 1er août 1774, je me suis efforcé d'extraire l'air du mercurius calcinatus proprement dit (précipité rouge de mercure) et j'ai constaté que, grâce à la lentille, l'air s'en expulsait très facilement. Ayant obtenu environ trois ou quatre fois plus que la majeure partie de mes matériaux, j'y ai admis de l'eau et j'ai constaté qu'elle n'était pas absorbée par elle. Mais ce qui m'a le plus surpris que je ne peux exprimer, c'est qu'une bougie a brûlé dans cet air avec une flamme vigoureuse, remarquable, très semblable à cette flamme agrandie avec laquelle une bougie brûle dans l'air nitreux... je ne savais absolument pas comment l'expliquer. »
@@ -553,7 +567,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Bayen, Recherches chimiques sur l'etain, P.D.Pierres, 1781, 285 p. (lire en ligne).
 Pierre Bayen, Opuscules chimiques de Pierre Bayen, Paris, A.-J. Dugour et Durand, an vi (tome 1, 1798, texte disponible en ligne sur IRIS et tome 2, 1798, texte disponible en ligne sur IRIS.
@@ -585,7 +601,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Paris et une de Châlons-en-Champagne portent son nom.
 Le lycée du centre ville de Châlons-en-Champagne (sa ville natale) porte aussi son nom.
